--- a/Oria_DailyTask.xlsx
+++ b/Oria_DailyTask.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Computer\Desktop\Group 2- Sept. 5, 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danica\SE_Grp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EC5419-9ADE-4DD2-BBBB-0C8D3544AFB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645DA413-EB86-4672-8CBA-FF3BA594487F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Aug 28-Sep 5" sheetId="1" r:id="rId1"/>
+    <sheet name="Sep 11-13" sheetId="2" r:id="rId2"/>
+    <sheet name="Sep 16-20" sheetId="3" r:id="rId3"/>
+    <sheet name="Sep 23-27" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,22 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
-  <si>
-    <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>DATE STARTED</t>
-  </si>
-  <si>
-    <t>TIME STARTED</t>
-  </si>
-  <si>
-    <t>DATE END</t>
-  </si>
-  <si>
-    <t>TIME END</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>Basic Computer</t>
   </si>
@@ -140,7 +128,16 @@
     <t>Arduino Session with/ Sir Rubio</t>
   </si>
   <si>
-    <t>Tomorrow</t>
+    <t>System Functions</t>
+  </si>
+  <si>
+    <t>Visitation for Client</t>
+  </si>
+  <si>
+    <t>12:00PM</t>
+  </si>
+  <si>
+    <t>4:30PM</t>
   </si>
 </sst>
 </file>
@@ -159,16 +156,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -400,16 +395,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -421,15 +497,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,10 +521,11 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -463,37 +540,64 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -810,303 +914,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E34E7C-B1B8-4314-A30C-B813676F7C49}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
     <row r="3" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0.9375</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="F4" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="36">
+        <v>43474</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="37">
+        <v>43505</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.3125</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.9375</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9">
-        <v>43474</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F6" s="10">
-        <v>43474</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11">
-        <v>43505</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.3125</v>
-      </c>
-      <c r="F7" s="13">
-        <v>43505</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
-        <v>43717</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="21">
-        <v>43717</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="27">
-        <v>43718</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
-        <v>43720</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="19">
-        <v>43724</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="21">
-        <v>43725</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="27">
-        <v>43726</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="30">
-        <v>43728</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="F7" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E743020-39D7-4809-B8B0-3A9C5C650150}">
+  <dimension ref="B2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="23" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="28">
+        <v>43717</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="20">
+        <v>43717</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
+        <v>43718</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="19">
+        <v>43720</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BAF9FE-85A4-4826-BF33-C8490BC09603}">
+  <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="19.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="28">
+        <v>43724</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="20">
+        <v>43725</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
+        <v>43726</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="26">
+        <v>43728</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6E1C69-0D39-4B13-AF41-C05F14D186F0}">
+  <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="23" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="26">
+        <v>45192</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="26">
+        <v>45192</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Oria_DailyTask.xlsx
+++ b/Oria_DailyTask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danica\SE_Grp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645DA413-EB86-4672-8CBA-FF3BA594487F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE44A4-EFD4-42B2-BAB8-5F003B0D7982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
+    <workbookView xWindow="8880" yWindow="720" windowWidth="11205" windowHeight="9360" firstSheet="1" activeTab="3" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 28-Sep 5" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Basic Computer</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>4:30PM</t>
+  </si>
+  <si>
+    <t>Sep 23-25</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1313,7 @@
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1343,8 +1346,8 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="26">
-        <v>45192</v>
+      <c r="B4" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>33</v>

--- a/Oria_DailyTask.xlsx
+++ b/Oria_DailyTask.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danica\SE_Grp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE44A4-EFD4-42B2-BAB8-5F003B0D7982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949FDD4D-2837-4D7F-915A-E93B53FD66EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="720" windowWidth="11205" windowHeight="9360" firstSheet="1" activeTab="3" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{C6E74CF2-123D-440E-A562-D7A1C00E054F}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 28-Sep 5" sheetId="1" r:id="rId1"/>
     <sheet name="Sep 11-13" sheetId="2" r:id="rId2"/>
     <sheet name="Sep 16-20" sheetId="3" r:id="rId3"/>
     <sheet name="Sep 23-27" sheetId="4" r:id="rId4"/>
+    <sheet name="Sep 30- Oct 4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Basic Computer</t>
   </si>
@@ -141,6 +142,12 @@
   </si>
   <si>
     <t>Sep 23-25</t>
+  </si>
+  <si>
+    <t>System Functions (Discount, Tax, Penalty)</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
   </si>
 </sst>
 </file>
@@ -486,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -601,6 +608,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1312,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6E1C69-0D39-4B13-AF41-C05F14D186F0}">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1388,4 +1401,76 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C58D4ED-48CC-43BA-BC5C-112165D13239}">
+  <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="23" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="40">
+        <v>37897</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>